--- a/data/Tabela04.xlsx
+++ b/data/Tabela04.xlsx
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -581,7 +581,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21">
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -881,7 +881,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48">
@@ -1076,7 +1076,7 @@
         </is>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="C50">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -1331,7 +1331,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67">
@@ -1361,7 +1361,7 @@
         </is>
       </c>
       <c r="C67">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -1376,7 +1376,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84">
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88">
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="90">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C92">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93">
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="94">
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="97">
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="98">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100">
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="C100">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="102">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103">
@@ -1901,7 +1901,7 @@
         </is>
       </c>
       <c r="C103">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107">
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="109">
@@ -1991,7 +1991,7 @@
         </is>
       </c>
       <c r="C109">
-        <v>73</v>
+        <v>85</v>
       </c>
     </row>
     <row r="110">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="C110">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="112">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="113">
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="114">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="115">
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>83</v>
+        <v>61</v>
       </c>
     </row>
     <row r="116">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117">
@@ -2111,7 +2111,7 @@
         </is>
       </c>
       <c r="C117">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C118">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="119">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="121">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="123">
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>88</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125">
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="126">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="C126">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="127">
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="128">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129">
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="130">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C130">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="131">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C131">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="132">
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="C132">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="133">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="C133">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="134">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="135">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="136">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="137">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="138">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="139">
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="140">
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="141">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="C141">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="142">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="143">
@@ -2501,7 +2501,7 @@
         </is>
       </c>
       <c r="C143">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144">
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="C144">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="145">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="C145">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="146">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="147">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="148">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="149">
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="C149">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="150">
@@ -2606,7 +2606,7 @@
         </is>
       </c>
       <c r="C150">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="151">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="C151">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="152">
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="C152">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="153">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="154">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="155">
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="C155">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="156">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="157">
@@ -2711,7 +2711,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>105</v>
+        <v>88</v>
       </c>
     </row>
     <row r="158">
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="C158">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159">
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="C159">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="160">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="161">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="C161">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="162">
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="C162">
-        <v>91</v>
+        <v>51</v>
       </c>
     </row>
     <row r="163">
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="C163">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="164">
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="C164">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="165">
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="C165">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="166">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="C166">
-        <v>71</v>
+        <v>109</v>
       </c>
     </row>
     <row r="167">
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="C167">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168">
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="C168">
-        <v>77</v>
+        <v>41</v>
       </c>
     </row>
     <row r="169">
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="C169">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="170">
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="C170">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="171">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="C171">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="172">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="C172">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="173">
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="C173">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174">
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="C174">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="175">
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="C175">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="176">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="C176">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="177">
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="178">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="179">
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="C179">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="180">
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="C180">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="181">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="C181">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="182">
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="183">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="184">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C185">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="186">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="187">
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>101</v>
+        <v>79</v>
       </c>
     </row>
     <row r="188">
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="189">
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="C189">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="190">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="C190">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="191">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="C191">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="192">
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="193">
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="194">
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>54</v>
+        <v>77</v>
       </c>
     </row>
     <row r="195">
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="C196">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="197">
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>84</v>
+        <v>95</v>
       </c>
     </row>
     <row r="198">
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="C198">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199">
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="C199">
-        <v>81</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="C201">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="202">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="C202">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="203">
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="C203">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="204">
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="C204">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="205">
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="C205">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="206">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="C206">
-        <v>37</v>
+        <v>64</v>
       </c>
     </row>
     <row r="207">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="C207">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="208">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>85</v>
+        <v>56</v>
       </c>
     </row>
     <row r="209">
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="C209">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210">
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="C210">
-        <v>89</v>
+        <v>70</v>
       </c>
     </row>
     <row r="211">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="C211">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="212">
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="C212">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="213">
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="C213">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="214">
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="C214">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="215">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C215">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="216">
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="C217">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="218">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="219">
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="C219">
-        <v>91</v>
+        <v>65</v>
       </c>
     </row>
     <row r="220">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="C220">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="221">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C221">
-        <v>74</v>
+        <v>58</v>
       </c>
     </row>
     <row r="222">
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="C222">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="223">
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="C223">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="224">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="C224">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="225">
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="C225">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="226">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="C226">
-        <v>79</v>
+        <v>57</v>
       </c>
     </row>
     <row r="227">
@@ -3761,7 +3761,7 @@
         </is>
       </c>
       <c r="C227">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="228">
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>49</v>
+        <v>77</v>
       </c>
     </row>
     <row r="229">
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="C229">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="230">
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="C230">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="231">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="C231">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="232">
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="C232">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="233">
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
     <row r="234">
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="C234">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="235">
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="236">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="C236">
-        <v>66</v>
+        <v>93</v>
       </c>
     </row>
     <row r="237">
@@ -3911,7 +3911,7 @@
         </is>
       </c>
       <c r="C237">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="238">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="C238">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="239">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="C239">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="240">
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="C240">
-        <v>57</v>
+        <v>100</v>
       </c>
     </row>
     <row r="241">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="C241">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="242">
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="C242">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="243">
@@ -4001,7 +4001,7 @@
         </is>
       </c>
       <c r="C243">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="244">
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="C245">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="246">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="C246">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="247">
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="C247">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="248">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="C248">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="249">
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="C249">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="250">
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="C250">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="251">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="C251">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="252">
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="C252">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="253">
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="C253">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="254">
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="C254">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="255">
@@ -4181,7 +4181,7 @@
         </is>
       </c>
       <c r="C255">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="256">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="C256">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="257">
@@ -4211,7 +4211,7 @@
         </is>
       </c>
       <c r="C257">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="258">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="C258">
-        <v>67</v>
+        <v>90</v>
       </c>
     </row>
     <row r="259">
@@ -4241,7 +4241,7 @@
         </is>
       </c>
       <c r="C259">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="260">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="C261">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="262">
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="C262">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="263">
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="C263">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="264">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="C264">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="265">
@@ -4331,7 +4331,7 @@
         </is>
       </c>
       <c r="C265">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="266">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="C266">
-        <v>99</v>
+        <v>66</v>
       </c>
     </row>
     <row r="267">
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="C267">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="268">
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="C268">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="269">
@@ -4391,7 +4391,7 @@
         </is>
       </c>
       <c r="C269">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="270">
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="C270">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="271">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="C271">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="272">
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="C272">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="273">
@@ -4451,7 +4451,7 @@
         </is>
       </c>
       <c r="C273">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="274">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="C274">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="C276">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="277">
@@ -4511,7 +4511,7 @@
         </is>
       </c>
       <c r="C277">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="278">
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="C278">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="279">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="C279">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="280">
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="C280">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="281">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="C281">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="282">
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="C282">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="283">
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="C283">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="284">
@@ -4616,7 +4616,7 @@
         </is>
       </c>
       <c r="C284">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="285">
@@ -4631,7 +4631,7 @@
         </is>
       </c>
       <c r="C285">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="286">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="C286">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="287">
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="C287">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="288">
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="C288">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="289">
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="C289">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="290">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="C290">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="291">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="C291">
-        <v>95</v>
+        <v>79</v>
       </c>
     </row>
     <row r="292">
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="C292">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="293">
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="C293">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="294">
@@ -4766,7 +4766,7 @@
         </is>
       </c>
       <c r="C294">
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="295">
@@ -4781,7 +4781,7 @@
         </is>
       </c>
       <c r="C295">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="296">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="C296">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="297">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="C297">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="298">
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="C298">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="299">
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="C299">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="300">
@@ -4856,7 +4856,7 @@
         </is>
       </c>
       <c r="C300">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="301">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="C301">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="302">
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="C302">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="303">
@@ -4901,7 +4901,7 @@
         </is>
       </c>
       <c r="C303">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="304">
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="C304">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="305">
@@ -4931,7 +4931,7 @@
         </is>
       </c>
       <c r="C305">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="C306">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="307">
@@ -4961,7 +4961,7 @@
         </is>
       </c>
       <c r="C307">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="308">
@@ -4976,7 +4976,7 @@
         </is>
       </c>
       <c r="C308">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="309">
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="C309">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="310">
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="C310">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="311">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="C311">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="312">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="C312">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="313">
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="C313">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="314">
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="C314">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="315">
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="C315">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="316">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="C316">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="317">
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="C317">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="318">
@@ -5126,7 +5126,7 @@
         </is>
       </c>
       <c r="C318">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="319">
@@ -5141,7 +5141,7 @@
         </is>
       </c>
       <c r="C319">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="320">
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="C320">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="321">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="C321">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/Tabela04.xlsx
+++ b/data/Tabela04.xlsx
@@ -386,7 +386,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -431,7 +431,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -551,7 +551,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -911,7 +911,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -926,7 +926,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -1031,7 +1031,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -1136,7 +1136,7 @@
         </is>
       </c>
       <c r="C52">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -1151,7 +1151,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63">
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65">
@@ -1391,7 +1391,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -1466,7 +1466,7 @@
         </is>
       </c>
       <c r="C74">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
@@ -1481,7 +1481,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77">
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -1541,7 +1541,7 @@
         </is>
       </c>
       <c r="C79">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
@@ -1556,7 +1556,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="81">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -1586,7 +1586,7 @@
         </is>
       </c>
       <c r="C82">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84">
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="C84">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85">
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="C86">
-        <v>74</v>
+        <v>88</v>
       </c>
     </row>
     <row r="87">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="C87">
-        <v>99</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88">
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90">
@@ -1706,7 +1706,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="C91">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C92">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93">
@@ -1751,7 +1751,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94">
@@ -1781,7 +1781,7 @@
         </is>
       </c>
       <c r="C95">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="96">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="C96">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97">
@@ -1811,7 +1811,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98">
@@ -1826,7 +1826,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>64</v>
+        <v>82</v>
       </c>
     </row>
     <row r="99">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="C99">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="C101">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="102">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="C102">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103">
@@ -1916,7 +1916,7 @@
         </is>
       </c>
       <c r="C104">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105">
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="C105">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="106">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="C106">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107">
@@ -1961,7 +1961,7 @@
         </is>
       </c>
       <c r="C107">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="108">
@@ -1976,7 +1976,7 @@
         </is>
       </c>
       <c r="C108">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="C111">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112">
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="C112">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113">
@@ -2051,7 +2051,7 @@
         </is>
       </c>
       <c r="C113">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="114">
@@ -2066,7 +2066,7 @@
         </is>
       </c>
       <c r="C114">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115">
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="C115">
-        <v>61</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="C116">
-        <v>64</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117">
@@ -2126,7 +2126,7 @@
         </is>
       </c>
       <c r="C118">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="119">
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="C119">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="120">
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="C120">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="121">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="C121">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="122">
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="C122">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="123">
@@ -2201,7 +2201,7 @@
         </is>
       </c>
       <c r="C123">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="124">
@@ -2216,7 +2216,7 @@
         </is>
       </c>
       <c r="C124">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125">
@@ -2231,7 +2231,7 @@
         </is>
       </c>
       <c r="C125">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="C126">
-        <v>81</v>
+        <v>101</v>
       </c>
     </row>
     <row r="127">
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="C127">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="C128">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="129">
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="C129">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="C130">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="131">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="C131">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="132">
@@ -2336,7 +2336,7 @@
         </is>
       </c>
       <c r="C132">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133">
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="C133">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="C134">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135">
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="C135">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="136">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="C136">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="137">
@@ -2411,7 +2411,7 @@
         </is>
       </c>
       <c r="C137">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="138">
@@ -2426,7 +2426,7 @@
         </is>
       </c>
       <c r="C138">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="139">
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="C139">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140">
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="C140">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="C141">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="142">
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="C142">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="143">
@@ -2516,7 +2516,7 @@
         </is>
       </c>
       <c r="C144">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="C145">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="146">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="C146">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147">
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="C147">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="148">
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="C148">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="C151">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="152">
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="C152">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="153">
@@ -2651,7 +2651,7 @@
         </is>
       </c>
       <c r="C153">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="154">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="C154">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155">
@@ -2681,7 +2681,7 @@
         </is>
       </c>
       <c r="C155">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="156">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="C156">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="157">
@@ -2711,7 +2711,7 @@
         </is>
       </c>
       <c r="C157">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="158">
@@ -2726,7 +2726,7 @@
         </is>
       </c>
       <c r="C158">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="159">
@@ -2741,7 +2741,7 @@
         </is>
       </c>
       <c r="C159">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="160">
@@ -2756,7 +2756,7 @@
         </is>
       </c>
       <c r="C160">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="161">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="C161">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="162">
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="C162">
-        <v>51</v>
+        <v>80</v>
       </c>
     </row>
     <row r="163">
@@ -2801,7 +2801,7 @@
         </is>
       </c>
       <c r="C163">
-        <v>64</v>
+        <v>73</v>
       </c>
     </row>
     <row r="164">
@@ -2816,7 +2816,7 @@
         </is>
       </c>
       <c r="C164">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="165">
@@ -2831,7 +2831,7 @@
         </is>
       </c>
       <c r="C165">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="C166">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="167">
@@ -2861,7 +2861,7 @@
         </is>
       </c>
       <c r="C167">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="168">
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="C168">
-        <v>41</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169">
@@ -2891,7 +2891,7 @@
         </is>
       </c>
       <c r="C169">
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="170">
@@ -2906,7 +2906,7 @@
         </is>
       </c>
       <c r="C170">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="C171">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="172">
@@ -2936,7 +2936,7 @@
         </is>
       </c>
       <c r="C172">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="173">
@@ -2951,7 +2951,7 @@
         </is>
       </c>
       <c r="C173">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="174">
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="C174">
-        <v>77</v>
+        <v>100</v>
       </c>
     </row>
     <row r="175">
@@ -2981,7 +2981,7 @@
         </is>
       </c>
       <c r="C175">
-        <v>63</v>
+        <v>87</v>
       </c>
     </row>
     <row r="176">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="C176">
-        <v>90</v>
+        <v>63</v>
       </c>
     </row>
     <row r="177">
@@ -3011,7 +3011,7 @@
         </is>
       </c>
       <c r="C177">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="C178">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="179">
@@ -3041,7 +3041,7 @@
         </is>
       </c>
       <c r="C179">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="180">
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="C180">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="181">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="C181">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="182">
@@ -3086,7 +3086,7 @@
         </is>
       </c>
       <c r="C182">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="183">
@@ -3101,7 +3101,7 @@
         </is>
       </c>
       <c r="C183">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="184">
@@ -3116,7 +3116,7 @@
         </is>
       </c>
       <c r="C184">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="185">
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="C185">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="186">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="C186">
-        <v>59</v>
+        <v>79</v>
       </c>
     </row>
     <row r="187">
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="C187">
-        <v>79</v>
+        <v>93</v>
       </c>
     </row>
     <row r="188">
@@ -3176,7 +3176,7 @@
         </is>
       </c>
       <c r="C188">
-        <v>78</v>
+        <v>101</v>
       </c>
     </row>
     <row r="189">
@@ -3191,7 +3191,7 @@
         </is>
       </c>
       <c r="C189">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="190">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="C190">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="191">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="C191">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="192">
@@ -3236,7 +3236,7 @@
         </is>
       </c>
       <c r="C192">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="193">
@@ -3251,7 +3251,7 @@
         </is>
       </c>
       <c r="C193">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="194">
@@ -3266,7 +3266,7 @@
         </is>
       </c>
       <c r="C194">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="195">
@@ -3281,7 +3281,7 @@
         </is>
       </c>
       <c r="C195">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="196">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="C196">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="197">
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="C197">
-        <v>95</v>
+        <v>62</v>
       </c>
     </row>
     <row r="198">
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="C198">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="199">
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="C199">
-        <v>103</v>
+        <v>78</v>
       </c>
     </row>
     <row r="200">
@@ -3356,7 +3356,7 @@
         </is>
       </c>
       <c r="C200">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="201">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="C201">
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="202">
@@ -3386,7 +3386,7 @@
         </is>
       </c>
       <c r="C202">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="203">
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="C203">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="204">
@@ -3416,7 +3416,7 @@
         </is>
       </c>
       <c r="C204">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="205">
@@ -3431,7 +3431,7 @@
         </is>
       </c>
       <c r="C205">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="206">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="C206">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="207">
@@ -3461,7 +3461,7 @@
         </is>
       </c>
       <c r="C207">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="208">
@@ -3476,7 +3476,7 @@
         </is>
       </c>
       <c r="C208">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="209">
@@ -3491,7 +3491,7 @@
         </is>
       </c>
       <c r="C209">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="210">
@@ -3506,7 +3506,7 @@
         </is>
       </c>
       <c r="C210">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="211">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="C211">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="212">
@@ -3536,7 +3536,7 @@
         </is>
       </c>
       <c r="C212">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="213">
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="C213">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="214">
@@ -3566,7 +3566,7 @@
         </is>
       </c>
       <c r="C214">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="215">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="C215">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="216">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="C216">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="217">
@@ -3611,7 +3611,7 @@
         </is>
       </c>
       <c r="C217">
-        <v>103</v>
+        <v>68</v>
       </c>
     </row>
     <row r="218">
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="C218">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="219">
@@ -3641,7 +3641,7 @@
         </is>
       </c>
       <c r="C219">
-        <v>65</v>
+        <v>43</v>
       </c>
     </row>
     <row r="220">
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="C220">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="221">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="C221">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="222">
@@ -3686,7 +3686,7 @@
         </is>
       </c>
       <c r="C222">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="223">
@@ -3701,7 +3701,7 @@
         </is>
       </c>
       <c r="C223">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="224">
@@ -3716,7 +3716,7 @@
         </is>
       </c>
       <c r="C224">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="225">
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="C225">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="226">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="C226">
-        <v>57</v>
+        <v>101</v>
       </c>
     </row>
     <row r="227">
@@ -3761,7 +3761,7 @@
         </is>
       </c>
       <c r="C227">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="228">
@@ -3776,7 +3776,7 @@
         </is>
       </c>
       <c r="C228">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="229">
@@ -3791,7 +3791,7 @@
         </is>
       </c>
       <c r="C229">
-        <v>51</v>
+        <v>104</v>
       </c>
     </row>
     <row r="230">
@@ -3806,7 +3806,7 @@
         </is>
       </c>
       <c r="C230">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="231">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="C231">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="232">
@@ -3851,7 +3851,7 @@
         </is>
       </c>
       <c r="C233">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="234">
@@ -3866,7 +3866,7 @@
         </is>
       </c>
       <c r="C234">
-        <v>75</v>
+        <v>48</v>
       </c>
     </row>
     <row r="235">
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="C235">
-        <v>96</v>
+        <v>73</v>
       </c>
     </row>
     <row r="236">
@@ -3911,7 +3911,7 @@
         </is>
       </c>
       <c r="C237">
-        <v>90</v>
+        <v>73</v>
       </c>
     </row>
     <row r="238">
@@ -3926,7 +3926,7 @@
         </is>
       </c>
       <c r="C238">
-        <v>96</v>
+        <v>62</v>
       </c>
     </row>
     <row r="239">
@@ -3941,7 +3941,7 @@
         </is>
       </c>
       <c r="C239">
-        <v>66</v>
+        <v>85</v>
       </c>
     </row>
     <row r="240">
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="C240">
-        <v>100</v>
+        <v>69</v>
       </c>
     </row>
     <row r="241">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="C241">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="242">
@@ -3986,7 +3986,7 @@
         </is>
       </c>
       <c r="C242">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="243">
@@ -4001,7 +4001,7 @@
         </is>
       </c>
       <c r="C243">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="244">
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="C244">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245">
@@ -4031,7 +4031,7 @@
         </is>
       </c>
       <c r="C245">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="246">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="C246">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="247">
@@ -4061,7 +4061,7 @@
         </is>
       </c>
       <c r="C247">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="248">
@@ -4076,7 +4076,7 @@
         </is>
       </c>
       <c r="C248">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="249">
@@ -4106,7 +4106,7 @@
         </is>
       </c>
       <c r="C250">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="251">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="C251">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="252">
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="C252">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="253">
@@ -4151,7 +4151,7 @@
         </is>
       </c>
       <c r="C253">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="254">
@@ -4166,7 +4166,7 @@
         </is>
       </c>
       <c r="C254">
-        <v>75</v>
+        <v>91</v>
       </c>
     </row>
     <row r="255">
@@ -4181,7 +4181,7 @@
         </is>
       </c>
       <c r="C255">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="256">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="C256">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="257">
@@ -4211,7 +4211,7 @@
         </is>
       </c>
       <c r="C257">
-        <v>71</v>
+        <v>91</v>
       </c>
     </row>
     <row r="258">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="C258">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="259">
@@ -4241,7 +4241,7 @@
         </is>
       </c>
       <c r="C259">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="260">
@@ -4256,7 +4256,7 @@
         </is>
       </c>
       <c r="C260">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="261">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="C261">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="262">
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="C262">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="263">
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="C263">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="264">
@@ -4316,7 +4316,7 @@
         </is>
       </c>
       <c r="C264">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="265">
@@ -4331,7 +4331,7 @@
         </is>
       </c>
       <c r="C265">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="266">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="C266">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="267">
@@ -4361,7 +4361,7 @@
         </is>
       </c>
       <c r="C267">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="268">
@@ -4376,7 +4376,7 @@
         </is>
       </c>
       <c r="C268">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="269">
@@ -4391,7 +4391,7 @@
         </is>
       </c>
       <c r="C269">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="270">
@@ -4406,7 +4406,7 @@
         </is>
       </c>
       <c r="C270">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="271">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="C271">
-        <v>96</v>
+        <v>67</v>
       </c>
     </row>
     <row r="272">
@@ -4436,7 +4436,7 @@
         </is>
       </c>
       <c r="C272">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="273">
@@ -4451,7 +4451,7 @@
         </is>
       </c>
       <c r="C273">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="274">
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="C274">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="275">
@@ -4481,7 +4481,7 @@
         </is>
       </c>
       <c r="C275">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="276">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="C276">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="277">
@@ -4511,7 +4511,7 @@
         </is>
       </c>
       <c r="C277">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="278">
@@ -4526,7 +4526,7 @@
         </is>
       </c>
       <c r="C278">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="279">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="C279">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="280">
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="C280">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="281">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="C281">
-        <v>77</v>
+        <v>89</v>
       </c>
     </row>
     <row r="282">
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="C282">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="283">
@@ -4601,7 +4601,7 @@
         </is>
       </c>
       <c r="C283">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="284">
@@ -4616,7 +4616,7 @@
         </is>
       </c>
       <c r="C284">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="285">
@@ -4631,7 +4631,7 @@
         </is>
       </c>
       <c r="C285">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="286">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="C286">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="287">
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="C287">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="288">
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="C288">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="289">
@@ -4691,7 +4691,7 @@
         </is>
       </c>
       <c r="C289">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="290">
@@ -4706,7 +4706,7 @@
         </is>
       </c>
       <c r="C290">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="291">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="C291">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="292">
@@ -4736,7 +4736,7 @@
         </is>
       </c>
       <c r="C292">
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="293">
@@ -4751,7 +4751,7 @@
         </is>
       </c>
       <c r="C293">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="294">
@@ -4766,7 +4766,7 @@
         </is>
       </c>
       <c r="C294">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="295">
@@ -4781,7 +4781,7 @@
         </is>
       </c>
       <c r="C295">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="296">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="C296">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="297">
@@ -4811,7 +4811,7 @@
         </is>
       </c>
       <c r="C297">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="298">
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="C298">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="299">
@@ -4841,7 +4841,7 @@
         </is>
       </c>
       <c r="C299">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="300">
@@ -4856,7 +4856,7 @@
         </is>
       </c>
       <c r="C300">
-        <v>86</v>
+        <v>68</v>
       </c>
     </row>
     <row r="301">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="C301">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="302">
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="C302">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="303">
@@ -4916,7 +4916,7 @@
         </is>
       </c>
       <c r="C304">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="305">
@@ -4931,7 +4931,7 @@
         </is>
       </c>
       <c r="C305">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="306">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="C306">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="307">
@@ -4961,7 +4961,7 @@
         </is>
       </c>
       <c r="C307">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="308">
@@ -4976,7 +4976,7 @@
         </is>
       </c>
       <c r="C308">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="309">
@@ -4991,7 +4991,7 @@
         </is>
       </c>
       <c r="C309">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="310">
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="C310">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="311">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="C311">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="312">
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="C312">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="313">
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="C313">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="314">
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="C314">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="315">
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="C315">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="316">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="C316">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="317">
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="C317">
-        <v>72</v>
+        <v>98</v>
       </c>
     </row>
     <row r="318">
@@ -5126,7 +5126,7 @@
         </is>
       </c>
       <c r="C318">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="319">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="C321">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
